--- a/Betas.xlsx
+++ b/Betas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\OneDrive\Documentos\GitHub\final-project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\final-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{B13EE51B-5E96-4C0C-AE7F-4EA0096DD477}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{F9165E0D-8899-4E84-B85D-35F9439011E7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC00D9D-29F0-4D0B-8E09-0645FE7D9985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="R" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1676,7 +1680,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1807,6 +1811,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2159,12 +2171,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2263,7 +2276,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2343,7 +2356,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-ES"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -4041,7 +4054,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="816851200"/>
@@ -4103,7 +4116,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="736073872"/>
@@ -4151,7 +4164,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4227,7 +4240,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4944,7 +4957,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="817285376"/>
@@ -5003,7 +5016,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="978655008"/>
@@ -5051,7 +5064,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6214,16 +6227,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>558742</xdr:colOff>
-      <xdr:row>251</xdr:row>
-      <xdr:rowOff>65654</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>34867</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>113279</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>512818</xdr:colOff>
-      <xdr:row>266</xdr:row>
-      <xdr:rowOff>2381</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>17518</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>50006</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6550,7 +6563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D269"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -10329,10 +10342,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K273"/>
+  <dimension ref="A1:R273"/>
   <sheetViews>
-    <sheetView zoomScale="86" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R61" sqref="R61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11593,7 +11606,7 @@
         <v>yes</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>37956</v>
       </c>
@@ -11619,7 +11632,7 @@
         <v>yes</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>37987</v>
       </c>
@@ -11645,7 +11658,7 @@
         <v>yes</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>38018</v>
       </c>
@@ -11671,7 +11684,7 @@
         <v>yes</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>38047</v>
       </c>
@@ -11697,7 +11710,7 @@
         <v>yes</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>38078</v>
       </c>
@@ -11723,7 +11736,7 @@
         <v>yes</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>38108</v>
       </c>
@@ -11749,7 +11762,7 @@
         <v>yes</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>38139</v>
       </c>
@@ -11775,7 +11788,7 @@
         <v>yes</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>38169</v>
       </c>
@@ -11801,7 +11814,7 @@
         <v>yes</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>38200</v>
       </c>
@@ -11827,7 +11840,7 @@
         <v>yes</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>38231</v>
       </c>
@@ -11853,7 +11866,7 @@
         <v>yes</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>38261</v>
       </c>
@@ -11879,7 +11892,7 @@
         <v>yes</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>38292</v>
       </c>
@@ -11905,7 +11918,7 @@
         <v>yes</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>38322</v>
       </c>
@@ -11930,8 +11943,9 @@
         <f t="shared" si="0"/>
         <v>yes</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R61" s="5"/>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>38353</v>
       </c>
@@ -11969,7 +11983,7 @@
         <v>=COVARIANCE.P(C3:C62;H3:H62)/VAR.P(H3:H62)</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>38384</v>
       </c>
@@ -12007,7 +12021,7 @@
         <v>=PENDIENTE(C3:C62;H3:H62)</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>38412</v>
       </c>

--- a/Betas.xlsx
+++ b/Betas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\final-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC00D9D-29F0-4D0B-8E09-0645FE7D9985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C878E6-7857-490C-ACE9-442FFB9EFA67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="R" sheetId="3" r:id="rId1"/>
@@ -4971,6 +4971,8 @@
         <c:axId val="817285376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="2.2000000000000002"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6229,14 +6231,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>34867</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>113279</xdr:rowOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>90237</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>17518</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>50006</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>335882</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>185487</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10344,8 +10346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R61" sqref="R61"/>
+    <sheetView tabSelected="1" topLeftCell="H65" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="I67" sqref="I67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Betas.xlsx
+++ b/Betas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\final-project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\OneDrive\Documentos\GitHub\final-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C878E6-7857-490C-ACE9-442FFB9EFA67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="102_{FE173C3F-F6D4-4908-82F2-D88DCFF5191A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="375" yWindow="375" windowWidth="20460" windowHeight="10770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="R" sheetId="3" r:id="rId1"/>
@@ -27,11 +27,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -2276,7 +2272,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2356,7 +2352,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-CO"/>
+                  <a:endParaRPr lang="es-ES"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -4054,7 +4050,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="816851200"/>
@@ -4116,7 +4112,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="736073872"/>
@@ -4164,7 +4160,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4240,7 +4236,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4957,7 +4953,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="817285376"/>
@@ -5018,7 +5014,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="978655008"/>
@@ -5066,7 +5062,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10346,8 +10342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H65" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="I67" sqref="I67"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
